--- a/biology/Zoologie/Helophilus_pendulus/Helophilus_pendulus.xlsx
+++ b/biology/Zoologie/Helophilus_pendulus/Helophilus_pendulus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helophilus pendulus, l'hélophile suspendu, est une espèce d'insectes de l'ordre des diptères de la famille des syrphes, aux couleurs contrastées, mesurant 10 à 15 mm et se rencontrant habituellement du printemps jusqu'en octobre butinant sur les fleurs. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est reconnaissable à sa face dorsale thoracique noire rayée longitudinalement de quatre bandes jaunes. Pour cette raison, il est appelé Footballer par les Anglais.
 Ses pattes sont orangées à extrémités noires.
@@ -548,14 +562,86 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago est visible d'avril à octobre, plutôt dans les milieux ouverts et humides (prairies humides, prés inondables, fonds de vallée, fossés). Les larves semblent apprécier les eaux boueuses et la vase où elles peuvent respirer grâce à un appendice (siphon). 
-Alimentation
-La larve se nourrit dans l'eau riche en matières organiques ou dans la vase.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Helophilus_pendulus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helophilus_pendulus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mode de vie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La larve se nourrit dans l'eau riche en matières organiques ou dans la vase.
 L'adulte se nourrit de pollen et de nectar.
-Reproduction
-Accouplement sur les feuilles, pontes d'œufs blancs allongés alignés sur une feuille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Helophilus_pendulus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helophilus_pendulus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Mode de vie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Reproduction</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Accouplement sur les feuilles, pontes d'œufs blancs allongés alignés sur une feuille.
 			En cours de ponte
 			Œufs
 			Larve
@@ -563,66 +649,105 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Helophilus_pendulus</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Helophilus_pendulus</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe tempérée jusqu'au nord des Îles Britanniques.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Helophilus_pendulus</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Helophilus_pendulus</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Musca pendulus.
-Synonymie
-Musca pendulus Linnaeus, 1758 Protonyme
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Musca pendulus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Helophilus_pendulus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Helophilus_pendulus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Musca pendulus Linnaeus, 1758 Protonyme
 Musca trilenvus Harris, 1776
 Helophilus trilenvus (Harris, 1776)
 Musca trilineatus Harris, 1776
